--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -43,6 +43,9 @@
     <t>crude</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -52,12 +55,6 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
@@ -67,76 +64,79 @@
     <t>best</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>special</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>fresh</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>help</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>care</t>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.92</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,31 +581,31 @@
         <v>0</v>
       </c>
       <c r="H3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L3">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>31</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>18</v>
-      </c>
-      <c r="M3">
-        <v>18</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -613,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7727272727272727</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="C4">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="D4">
-        <v>119</v>
+        <v>25</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.351931330472103</v>
+        <v>0.6232876712328768</v>
       </c>
       <c r="C5">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="D5">
-        <v>82</v>
+        <v>182</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="L5">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M5">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2906976744186047</v>
+        <v>0.2131782945736434</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>110</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>61</v>
+        <v>406</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
-        <v>0.875</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="L6">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="M6">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -763,87 +763,63 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.225</v>
+        <v>0.1957671957671958</v>
       </c>
       <c r="C7">
+        <v>37</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>152</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D7">
-        <v>18</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>62</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L7">
+        <v>38</v>
+      </c>
+      <c r="M7">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K7">
-        <v>0.875</v>
-      </c>
-      <c r="L7">
-        <v>14</v>
-      </c>
-      <c r="M7">
-        <v>14</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.1454545454545454</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>94</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="K8">
-        <v>0.8703703703703703</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L8">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="M8">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -855,21 +831,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8627450980392157</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -881,21 +857,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8518518518518519</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -907,21 +883,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K11">
-        <v>0.8035714285714286</v>
+        <v>0.8</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>96</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -933,21 +909,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -959,21 +935,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7758620689655172</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -985,21 +961,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K14">
-        <v>0.76</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L14">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="M14">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1011,21 +987,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15">
-        <v>0.75</v>
+        <v>0.675</v>
       </c>
       <c r="L15">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="M15">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1037,21 +1013,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>6</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7435897435897436</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1063,21 +1039,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7241379310344828</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1089,21 +1065,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K18">
-        <v>0.684931506849315</v>
+        <v>0.64</v>
       </c>
       <c r="L18">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="M18">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1115,21 +1091,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6666666666666666</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L19">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="M19">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1141,21 +1117,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>11</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6538461538461539</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1167,21 +1143,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K21">
-        <v>0.64</v>
+        <v>0.6031746031746031</v>
       </c>
       <c r="L21">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1193,21 +1169,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K22">
-        <v>0.568075117370892</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L22">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="M22">
-        <v>121</v>
+        <v>212</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1219,21 +1195,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>92</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5357142857142857</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>162</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1245,21 +1221,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>13</v>
+        <v>178</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K24">
-        <v>0.5271317829457365</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L24">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1271,21 +1247,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4487179487179487</v>
       </c>
       <c r="L25">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="M25">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1297,21 +1273,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>72</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K26">
-        <v>0.5</v>
+        <v>0.4440677966101695</v>
       </c>
       <c r="L26">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>131</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1323,21 +1299,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>15</v>
+        <v>164</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K27">
-        <v>0.4456521739130435</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L27">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="M27">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1349,33 +1325,59 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28">
+        <v>0.3389121338912134</v>
+      </c>
+      <c r="L28">
+        <v>81</v>
+      </c>
+      <c r="M28">
+        <v>81</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K28">
-        <v>0.4</v>
-      </c>
-      <c r="L28">
-        <v>14</v>
-      </c>
-      <c r="M28">
-        <v>14</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>21</v>
+      <c r="K29">
+        <v>0.02796420581655481</v>
+      </c>
+      <c r="L29">
+        <v>25</v>
+      </c>
+      <c r="M29">
+        <v>25</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>869</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-topk-0.2/avg_0.004_scores.xlsx
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -64,79 +61,82 @@
     <t>best</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>free</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>free</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>safe</t>
   </si>
   <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>care</t>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>store</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q29"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,10 +502,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -563,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
         <v>0.9393939393939394</v>
@@ -613,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6944444444444444</v>
+        <v>0.565068493150685</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="D4">
-        <v>25</v>
+        <v>165</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -631,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -663,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.6232876712328768</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C5">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="D5">
-        <v>182</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -681,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>110</v>
+        <v>404</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.875</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -713,13 +713,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2131782945736434</v>
+        <v>0.1534391534391534</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -731,69 +731,45 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>406</v>
+        <v>160</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L6">
+        <v>97</v>
+      </c>
+      <c r="M6">
+        <v>97</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K6">
-        <v>0.8448275862068966</v>
-      </c>
-      <c r="L6">
-        <v>49</v>
-      </c>
-      <c r="M6">
-        <v>49</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1957671957671958</v>
-      </c>
-      <c r="C7">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>37</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>152</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K7">
-        <v>0.8260869565217391</v>
+        <v>0.8203125</v>
       </c>
       <c r="L7">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="M7">
-        <v>38</v>
+        <v>105</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -805,21 +781,21 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8170731707317073</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M8">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -831,21 +807,21 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
-        <v>0.8125</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L9">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="M9">
-        <v>104</v>
+        <v>46</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -857,21 +833,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>94</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -883,21 +859,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="L11">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -909,21 +885,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7535211267605634</v>
+        <v>0.7254901960784313</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -935,21 +911,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7075471698113207</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L13">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="M13">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -961,21 +937,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6944444444444444</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L14">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="M14">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -987,21 +963,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.675</v>
+        <v>0.7</v>
       </c>
       <c r="L15">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M15">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1013,21 +989,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.6666666666666666</v>
+        <v>0.6690140845070423</v>
       </c>
       <c r="L16">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="M16">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1039,21 +1015,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6595744680851063</v>
+        <v>0.64</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1065,21 +1041,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.64</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L18">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="M18">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1091,21 +1067,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6382978723404256</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L19">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1117,15 +1093,15 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6041666666666666</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L20">
         <v>29</v>
@@ -1143,21 +1119,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6031746031746031</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L21">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="M21">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1169,21 +1145,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5535248041775457</v>
+        <v>0.5300261096605744</v>
       </c>
       <c r="L22">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="M22">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1195,21 +1171,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.4764705882352941</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L23">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="M23">
-        <v>162</v>
+        <v>43</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1221,21 +1197,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>178</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4606741573033708</v>
+        <v>0.4779661016949153</v>
       </c>
       <c r="L24">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="M24">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1247,21 +1223,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>48</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4487179487179487</v>
+        <v>0.4647058823529412</v>
       </c>
       <c r="L25">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="M25">
-        <v>35</v>
+        <v>158</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1273,21 +1249,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>43</v>
+        <v>182</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4440677966101695</v>
+        <v>0.4246575342465753</v>
       </c>
       <c r="L26">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>131</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1299,21 +1275,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>164</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.3972602739726027</v>
+        <v>0.3723849372384937</v>
       </c>
       <c r="L27">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="M27">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1325,21 +1301,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>44</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.3389121338912134</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L28">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M28">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1351,33 +1327,59 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>158</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.03467561521252797</v>
+      </c>
+      <c r="L29">
+        <v>31</v>
+      </c>
+      <c r="M29">
+        <v>31</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K29">
-        <v>0.02796420581655481</v>
-      </c>
-      <c r="L29">
-        <v>25</v>
-      </c>
-      <c r="M29">
-        <v>25</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>869</v>
+      <c r="K30">
+        <v>0.008695652173913044</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>0.93</v>
+      </c>
+      <c r="O30">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30">
+        <v>3078</v>
       </c>
     </row>
   </sheetData>
